--- a/やりたいことリスト.xlsx
+++ b/やりたいことリスト.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">作りたい機能</t>
   </si>
@@ -57,6 +57,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一度ログインしたIDを記録するかのチェックボタン（次回打たないでいい）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン状態ならindex.jspの商品一覧でも編集・削除画面へいけるように</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">縦の写真を選択したときの大サムネイルのサイズ調整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大サムネイルをクリックしたとき新ウィンドウで画像表示</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -86,7 +104,47 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">listUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品追加時に記録しているuser_typeを「追加ユーザー」等に反映</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addProduct</t>
+  </si>
+  <si>
     <t xml:space="preserve">ユーザー追加等をしたとき過去のデータとかぶったときにエラー画面を表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">希望パスワード二回打たせる、合ってるかチェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追加・編集・削除画面で決定を押したとき一度確認画面へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add* update* delete*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">追加・編集画面でのバリデーション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add* update*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品削除ページで商品URLテキストに&lt;a&gt;追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update + add Products.jspのJavaScriptシンプル化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddProduct.jsp
+updateProduct.jsp</t>
   </si>
 </sst>
 </file>
@@ -177,13 +235,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -206,12 +272,13 @@
   <dimension ref="C3:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.22"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,99 +293,145 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1"/>
